--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Cho\Documents\GitHub\Garden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CD011C-BFCF-4BFA-8D37-236C801E3507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022A9A6F-A91C-49BE-9516-53067646E30E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0EDFDADB-9E3E-43CD-BD37-03C403D78EB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="118">
   <si>
     <t>Predatory Plants</t>
   </si>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BD9023-5FD6-4A32-A5DA-D2C8B57C7E01}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +810,9 @@
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="B2">
+        <v>24.99</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -824,6 +827,9 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B3">
+        <v>19.989999999999998</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -838,6 +844,9 @@
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B4">
+        <v>17.989999999999998</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -852,20 +861,23 @@
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="B5">
+        <v>24.99</v>
+      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B6">
+        <v>29.99</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -880,6 +892,9 @@
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B7">
+        <v>34.99</v>
+      </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -894,6 +909,9 @@
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B8">
+        <v>19.989999999999998</v>
+      </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -908,6 +926,9 @@
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B9">
+        <v>19.989999999999998</v>
+      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -922,6 +943,9 @@
       <c r="A10" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="B10">
+        <v>24.99</v>
+      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -936,6 +960,9 @@
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="B11">
+        <v>24.99</v>
+      </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -950,6 +977,9 @@
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="B12">
+        <v>24.99</v>
+      </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -964,6 +994,9 @@
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B13">
+        <v>29.99</v>
+      </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -978,6 +1011,9 @@
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="B14">
+        <v>18.95</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -992,6 +1028,9 @@
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B15">
+        <v>18.95</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,6 +1045,9 @@
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B16">
+        <v>34.950000000000003</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1020,6 +1062,9 @@
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1034,6 +1079,9 @@
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1048,6 +1096,9 @@
       <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1062,6 +1113,9 @@
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1076,6 +1130,9 @@
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1087,6 +1144,9 @@
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1098,6 +1158,9 @@
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1112,6 +1175,9 @@
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1126,6 +1192,9 @@
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1140,6 +1209,9 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1154,6 +1226,9 @@
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1168,6 +1243,9 @@
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1182,6 +1260,9 @@
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1195,6 +1276,9 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
